--- a/doc/weekly_CS673_ProgressReport_team3.xlsx
+++ b/doc/weekly_CS673_ProgressReport_team3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="224">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -824,6 +824,39 @@
 3 - merge and connect everyone's pages
 5 - prepare for Iteration 1
 7 - write SDD document</t>
+  </si>
+  <si>
+    <t>10/12 - 10/19</t>
+  </si>
+  <si>
+    <t>0 - learn Flask SQLALchemy and React Bootstrap
+1 - update the SPPP document and finish the SDD document
+2 - design the database with Tony and Siyuan
+3 - complete the loginpage, merge for iteration 1
+4 - test the merged project
+5 - communicate the debug and deployment problems 
+while testing</t>
+  </si>
+  <si>
+    <t>1. update the SPPP document and 
+finish my part of SDD document
+2. finish the loginpage 
+3. merge and test for Iteration1</t>
+  </si>
+  <si>
+    <t>1. unexpected computer breakdown problem
+and did not push the project to Git in time</t>
+  </si>
+  <si>
+    <t>1. communicate with the teamleader Siyuan 
+and with the help of Tony, finally complete 
+the basic version. And I will make up for 
+this in the next Iteration2.</t>
+  </si>
+  <si>
+    <t>0 - continue to learn Module 3 and Flask
+2- database constuction and connect
+7 - prepare for Iteration 2</t>
   </si>
   <si>
     <r>
@@ -20912,9 +20945,8 @@
     <col customWidth="1" min="11" max="11" width="5.75"/>
     <col customWidth="1" min="12" max="13" width="6.0"/>
     <col customWidth="1" min="14" max="14" width="5.63"/>
-    <col customWidth="1" min="15" max="15" width="28.25"/>
-    <col customWidth="1" min="16" max="16" width="30.63"/>
-    <col customWidth="1" min="17" max="17" width="30.13"/>
+    <col customWidth="1" min="15" max="15" width="30.38"/>
+    <col customWidth="1" min="16" max="17" width="33.25"/>
     <col customWidth="1" min="18" max="18" width="30.25"/>
     <col customWidth="1" min="19" max="19" width="6.25"/>
     <col customWidth="1" min="20" max="22" width="10.75"/>
@@ -21236,19 +21268,59 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.0</v>
+      </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.0</v>
+      </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" s="7">
+        <v>16.0</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -25898,7 +25970,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -26062,7 +26134,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7">
         <v>2.0</v>
@@ -26079,16 +26151,16 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="S5" s="7">
         <v>6.0</v>
@@ -26114,7 +26186,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7">
         <v>5.0</v>
@@ -26133,16 +26205,16 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S6" s="7">
         <v>10.0</v>
@@ -26168,7 +26240,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7">
         <v>7.0</v>
@@ -26185,16 +26257,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="S7" s="7">
         <v>13.0</v>
@@ -26220,7 +26292,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7">
         <v>6.0</v>
@@ -26239,16 +26311,16 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S8" s="7">
         <v>12.0</v>
@@ -26274,7 +26346,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7">
         <v>8.0</v>
@@ -26293,16 +26365,16 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="S9" s="7">
         <v>20.0</v>
@@ -30916,7 +30988,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="68" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -31013,7 +31085,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="T3" s="71"/>
       <c r="U3" s="71"/>
@@ -31031,34 +31103,34 @@
         <v>98</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J4" s="71"/>
       <c r="K4" s="71"/>
       <c r="L4" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N4" s="71"/>
       <c r="O4" s="82" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>136</v>
@@ -31067,10 +31139,10 @@
         <v>136</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S4" s="82" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T4" s="71"/>
       <c r="U4" s="71"/>
@@ -31085,38 +31157,38 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>192</v>
-      </c>
       <c r="F5" s="82" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
       <c r="L5" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M5" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N5" s="71"/>
       <c r="O5" s="82" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P5" s="82" t="s">
         <v>136</v>
@@ -31125,10 +31197,10 @@
         <v>136</v>
       </c>
       <c r="R5" s="82" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="S5" s="82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="T5" s="71"/>
       <c r="U5" s="71"/>
@@ -31143,36 +31215,36 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>199</v>
-      </c>
       <c r="E6" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
       <c r="J6" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
       <c r="M6" s="82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="82" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P6" s="82" t="s">
         <v>136</v>
@@ -31181,10 +31253,10 @@
         <v>136</v>
       </c>
       <c r="R6" s="82" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="S6" s="82" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="T6" s="71"/>
       <c r="U6" s="71"/>
@@ -31199,48 +31271,48 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
       <c r="I7" s="82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
       <c r="M7" s="82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N7" s="71"/>
       <c r="O7" s="82" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P7" s="82" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="T7" s="71"/>
       <c r="U7" s="71"/>
